--- a/ResultsByUHF20210519/DailyProjections_citywide20210519.xlsx
+++ b/ResultsByUHF20210519/DailyProjections_citywide20210519.xlsx
@@ -458,22 +458,22 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1382 (979, 1904)</t>
+          <t>1394 (978, 1939)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>468 (391, 564)</t>
+          <t>468 (391, 565)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>34 (23, 48)</t>
+          <t>33 (22, 47)</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>24 (13, 38)</t>
+          <t>24 (13, 37)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -483,7 +483,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>7 (5, 11)</t>
+          <t>7 (4, 10)</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -493,17 +493,17 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>59 (39, 85)</t>
+          <t>58 (38, 83)</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>42 (22, 68)</t>
+          <t>41 (22, 66)</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>16 (10, 24)</t>
+          <t>16 (10, 23)</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -535,27 +535,27 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1270 (872, 1808)</t>
+          <t>1289 (874, 1852)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>437 (359, 534)</t>
+          <t>437 (359, 535)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>32 (21, 45)</t>
+          <t>31 (20, 44)</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>23 (12, 36)</t>
+          <t>22 (12, 35)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>9 (6, 13)</t>
+          <t>9 (5, 12)</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -570,22 +570,22 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>57 (38, 81)</t>
+          <t>55 (37, 80)</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>40 (21, 65)</t>
+          <t>39 (21, 63)</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>15 (10, 23)</t>
+          <t>15 (9, 22)</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>11 (7, 16)</t>
+          <t>10 (7, 15)</t>
         </is>
       </c>
     </row>
@@ -612,22 +612,22 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1177 (777, 1721)</t>
+          <t>1198 (783, 1770)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>406 (328, 505)</t>
+          <t>406 (328, 506)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>30 (20, 43)</t>
+          <t>29 (19, 42)</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>21 (11, 34)</t>
+          <t>21 (11, 33)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -637,7 +637,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>7 (4, 10)</t>
+          <t>6 (4, 9)</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -647,17 +647,17 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>54 (36, 78)</t>
+          <t>53 (35, 77)</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>39 (20, 62)</t>
+          <t>38 (20, 61)</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>15 (9, 22)</t>
+          <t>14 (9, 21)</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -689,22 +689,22 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1095 (692, 1649)</t>
+          <t>1122 (701, 1698)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>378 (300, 479)</t>
+          <t>379 (300, 481)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>28 (18, 40)</t>
+          <t>27 (18, 40)</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>20 (10, 32)</t>
+          <t>19 (10, 31)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>52 (34, 75)</t>
+          <t>51 (33, 73)</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>37 (19, 59)</t>
+          <t>36 (19, 58)</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>14 (9, 21)</t>
+          <t>14 (8, 20)</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -766,27 +766,27 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1018 (621, 1577)</t>
+          <t>1051 (632, 1634)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>353 (274, 455)</t>
+          <t>354 (274, 457)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>26 (17, 38)</t>
+          <t>25 (16, 37)</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>18 (9, 30)</t>
+          <t>18 (9, 29)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>8 (5, 11)</t>
+          <t>7 (5, 11)</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -801,22 +801,22 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>49 (33, 71)</t>
+          <t>48 (32, 70)</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>35 (18, 57)</t>
+          <t>34 (18, 56)</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>13 (8, 20)</t>
+          <t>13 (8, 19)</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>9 (6, 14)</t>
+          <t>9 (6, 13)</t>
         </is>
       </c>
     </row>
@@ -843,22 +843,22 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>954 (555, 1511)</t>
+          <t>987 (570, 1566)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>329 (250, 433)</t>
+          <t>331 (251, 436)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>24 (15, 36)</t>
+          <t>23 (15, 35)</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>16 (8, 28)</t>
+          <t>16 (8, 27)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -868,27 +868,27 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>6 (3, 8)</t>
+          <t>5 (3, 8)</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>8 (7, 11)</t>
+          <t>9 (7, 11)</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>47 (31, 68)</t>
+          <t>46 (30, 67)</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>34 (18, 54)</t>
+          <t>33 (17, 54)</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>13 (8, 19)</t>
+          <t>12 (8, 19)</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -920,17 +920,17 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>892 (502, 1449)</t>
+          <t>929 (517, 1509)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>307 (228, 412)</t>
+          <t>309 (229, 416)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>22 (14, 34)</t>
+          <t>21 (13, 33)</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -955,22 +955,22 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>45 (29, 65)</t>
+          <t>44 (29, 64)</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>32 (17, 52)</t>
+          <t>31 (16, 51)</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>12 (8, 18)</t>
+          <t>12 (7, 18)</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>9 (5, 12)</t>
+          <t>8 (5, 12)</t>
         </is>
       </c>
     </row>
@@ -997,22 +997,22 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>838 (453, 1395)</t>
+          <t>875 (470, 1458)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>286 (207, 393)</t>
+          <t>289 (208, 398)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>20 (13, 32)</t>
+          <t>20 (12, 31)</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>14 (7, 24)</t>
+          <t>14 (6, 24)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1027,22 +1027,22 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>7 (6, 10)</t>
+          <t>8 (6, 10)</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>43 (28, 63)</t>
+          <t>42 (27, 62)</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>30 (16, 50)</t>
+          <t>30 (15, 49)</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>12 (7, 17)</t>
+          <t>11 (7, 17)</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1074,32 +1074,32 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>792 (412, 1345)</t>
+          <t>830 (431, 1412)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>267 (187, 375)</t>
+          <t>270 (189, 380)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>19 (11, 30)</t>
+          <t>18 (11, 30)</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>13 (6, 23)</t>
+          <t>12 (6, 23)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>6 (4, 9)</t>
+          <t>6 (3, 8)</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>5 (3, 7)</t>
+          <t>4 (3, 7)</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1109,12 +1109,12 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>41 (26, 60)</t>
+          <t>40 (26, 59)</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>29 (15, 48)</t>
+          <t>28 (14, 47)</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1151,12 +1151,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>745 (374, 1302)</t>
+          <t>789 (392, 1371)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>248 (169, 358)</t>
+          <t>252 (171, 364)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1166,7 +1166,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>11 (5, 22)</t>
+          <t>11 (5, 21)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1186,12 +1186,12 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>39 (25, 57)</t>
+          <t>38 (24, 56)</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>27 (14, 46)</t>
+          <t>27 (13, 45)</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1201,7 +1201,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>7 (5, 11)</t>
+          <t>7 (4, 11)</t>
         </is>
       </c>
     </row>
@@ -1228,12 +1228,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>705 (343, 1258)</t>
+          <t>748 (360, 1329)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>232 (152, 342)</t>
+          <t>236 (154, 348)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1243,7 +1243,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>11 (4, 20)</t>
+          <t>10 (4, 20)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1258,17 +1258,17 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>6 (5, 8)</t>
+          <t>6 (5, 9)</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>37 (23, 55)</t>
+          <t>36 (23, 54)</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>26 (13, 43)</t>
+          <t>25 (12, 43)</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1305,17 +1305,17 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>668 (311, 1215)</t>
+          <t>709 (332, 1287)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>216 (137, 327)</t>
+          <t>221 (139, 334)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>15 (8, 25)</t>
+          <t>14 (8, 25)</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1340,7 +1340,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>35 (22, 52)</t>
+          <t>34 (21, 51)</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>7 (4, 10)</t>
+          <t>6 (4, 10)</t>
         </is>
       </c>
     </row>
@@ -1382,17 +1382,17 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>630 (282, 1174)</t>
+          <t>673 (304, 1248)</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>202 (124, 313)</t>
+          <t>207 (126, 321)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>14 (7, 24)</t>
+          <t>13 (7, 24)</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1412,22 +1412,22 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>5 (4, 8)</t>
+          <t>6 (4, 8)</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>33 (21, 50)</t>
+          <t>32 (20, 49)</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>23 (11, 40)</t>
+          <t>22 (11, 39)</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>9 (6, 14)</t>
+          <t>9 (5, 14)</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -1459,12 +1459,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>594 (258, 1134)</t>
+          <t>641 (280, 1208)</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>190 (112, 300)</t>
+          <t>195 (115, 308)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1489,22 +1489,22 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>5 (4, 7)</t>
+          <t>5 (4, 8)</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>31 (19, 47)</t>
+          <t>30 (19, 47)</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>22 (10, 38)</t>
+          <t>21 (10, 37)</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>9 (5, 13)</t>
+          <t>8 (5, 13)</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1536,22 +1536,22 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1388 (983, 1910)</t>
+          <t>1402 (982, 1948)</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>468 (391, 564)</t>
+          <t>468 (391, 565)</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>34 (23, 48)</t>
+          <t>33 (22, 47)</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>24 (13, 38)</t>
+          <t>24 (13, 37)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>7 (5, 11)</t>
+          <t>7 (4, 10)</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1571,17 +1571,17 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>59 (39, 85)</t>
+          <t>58 (38, 83)</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>42 (22, 68)</t>
+          <t>41 (22, 66)</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>16 (10, 24)</t>
+          <t>16 (10, 23)</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1613,27 +1613,27 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1285 (880, 1826)</t>
+          <t>1304 (882, 1873)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>437 (359, 534)</t>
+          <t>437 (359, 535)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>32 (21, 45)</t>
+          <t>31 (20, 44)</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>23 (12, 36)</t>
+          <t>22 (12, 35)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>9 (6, 13)</t>
+          <t>9 (5, 12)</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1648,22 +1648,22 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>57 (38, 82)</t>
+          <t>55 (37, 79)</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>40 (21, 65)</t>
+          <t>39 (21, 63)</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>15 (10, 23)</t>
+          <t>15 (9, 22)</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>11 (7, 16)</t>
+          <t>10 (7, 15)</t>
         </is>
       </c>
     </row>
@@ -1690,22 +1690,22 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1200 (792, 1754)</t>
+          <t>1221 (797, 1804)</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>407 (329, 506)</t>
+          <t>407 (328, 507)</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>30 (20, 43)</t>
+          <t>29 (19, 42)</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>21 (11, 34)</t>
+          <t>21 (11, 33)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>7 (4, 10)</t>
+          <t>6 (4, 9)</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1725,17 +1725,17 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>54 (36, 78)</t>
+          <t>53 (35, 76)</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>39 (20, 62)</t>
+          <t>38 (20, 60)</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>15 (9, 22)</t>
+          <t>14 (9, 21)</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1767,22 +1767,22 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1118 (709, 1690)</t>
+          <t>1149 (722, 1743)</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>379 (300, 481)</t>
+          <t>380 (300, 482)</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>28 (18, 40)</t>
+          <t>27 (18, 40)</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>20 (10, 32)</t>
+          <t>19 (10, 31)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1802,17 +1802,17 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>52 (34, 75)</t>
+          <t>50 (34, 73)</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>37 (19, 60)</t>
+          <t>36 (19, 58)</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>14 (9, 21)</t>
+          <t>14 (8, 20)</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -1844,27 +1844,27 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1050 (640, 1621)</t>
+          <t>1084 (653, 1680)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>354 (275, 458)</t>
+          <t>355 (275, 460)</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>26 (17, 38)</t>
+          <t>25 (16, 38)</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>18 (10, 30)</t>
+          <t>18 (9, 29)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>8 (5, 11)</t>
+          <t>7 (5, 11)</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1879,22 +1879,22 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>49 (33, 72)</t>
+          <t>48 (32, 70)</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>35 (18, 57)</t>
+          <t>34 (18, 55)</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>13 (8, 20)</t>
+          <t>13 (8, 19)</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>9 (6, 14)</t>
+          <t>9 (6, 13)</t>
         </is>
       </c>
     </row>
@@ -1921,22 +1921,22 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>988 (575, 1567)</t>
+          <t>1022 (591, 1628)</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>332 (252, 437)</t>
+          <t>334 (253, 440)</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>24 (15, 36)</t>
+          <t>23 (15, 36)</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>17 (8, 28)</t>
+          <t>16 (8, 28)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1946,27 +1946,27 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>6 (3, 8)</t>
+          <t>5 (3, 8)</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>8 (7, 11)</t>
+          <t>9 (7, 11)</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>47 (31, 68)</t>
+          <t>46 (30, 67)</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>34 (17, 55)</t>
+          <t>33 (17, 53)</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>13 (8, 19)</t>
+          <t>12 (8, 18)</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -1998,12 +1998,12 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>931 (525, 1509)</t>
+          <t>965 (540, 1575)</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>311 (231, 418)</t>
+          <t>313 (232, 422)</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -2013,7 +2013,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>15 (8, 26)</t>
+          <t>15 (7, 26)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -2033,17 +2033,17 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>45 (29, 66)</t>
+          <t>44 (29, 64)</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>32 (16, 52)</t>
+          <t>31 (16, 51)</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>12 (8, 18)</t>
+          <t>12 (7, 18)</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -2075,17 +2075,17 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>888 (483, 1475)</t>
+          <t>927 (500, 1542)</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>291 (210, 401)</t>
+          <t>294 (211, 405)</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>20 (13, 32)</t>
+          <t>20 (12, 32)</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -2110,17 +2110,17 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>43 (28, 63)</t>
+          <t>42 (27, 61)</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>30 (16, 50)</t>
+          <t>30 (15, 48)</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>12 (7, 17)</t>
+          <t>11 (7, 17)</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -2152,12 +2152,12 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>856 (447, 1456)</t>
+          <t>898 (469, 1528)</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>273 (191, 385)</t>
+          <t>276 (193, 390)</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -2167,32 +2167,32 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>13 (6, 24)</t>
+          <t>13 (6, 23)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>6 (4, 9)</t>
+          <t>6 (3, 8)</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>5 (3, 7)</t>
+          <t>4 (3, 7)</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>7 (5, 9)</t>
+          <t>7 (5, 10)</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>41 (26, 60)</t>
+          <t>40 (26, 58)</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>29 (15, 48)</t>
+          <t>28 (14, 46)</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -2229,17 +2229,17 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>824 (417, 1436)</t>
+          <t>873 (438, 1513)</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>256 (173, 370)</t>
+          <t>260 (176, 376)</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>18 (10, 29)</t>
+          <t>17 (10, 29)</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -2254,7 +2254,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>4 (3, 7)</t>
+          <t>4 (3, 6)</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2264,22 +2264,22 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>39 (25, 57)</t>
+          <t>38 (24, 56)</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>27 (14, 46)</t>
+          <t>27 (13, 44)</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>10 (6, 16)</t>
+          <t>10 (6, 15)</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>7 (5, 11)</t>
+          <t>7 (4, 11)</t>
         </is>
       </c>
     </row>
@@ -2306,12 +2306,12 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>798 (390, 1409)</t>
+          <t>845 (410, 1492)</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>241 (158, 357)</t>
+          <t>246 (160, 364)</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -2341,12 +2341,12 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>37 (23, 55)</t>
+          <t>36 (23, 53)</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>26 (13, 44)</t>
+          <t>25 (13, 42)</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -2383,12 +2383,12 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>770 (363, 1390)</t>
+          <t>819 (386, 1479)</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>228 (144, 346)</t>
+          <t>233 (146, 353)</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -2418,12 +2418,12 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>35 (22, 52)</t>
+          <t>34 (21, 51)</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>24 (12, 42)</t>
+          <t>24 (12, 40)</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -2433,7 +2433,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>7 (4, 10)</t>
+          <t>6 (4, 10)</t>
         </is>
       </c>
     </row>
@@ -2460,12 +2460,12 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>739 (340, 1369)</t>
+          <t>793 (364, 1461)</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>216 (131, 336)</t>
+          <t>221 (134, 344)</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -2485,7 +2485,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>3 (2, 6)</t>
+          <t>3 (2, 5)</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2495,17 +2495,17 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>33 (21, 50)</t>
+          <t>32 (20, 49)</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>23 (11, 40)</t>
+          <t>22 (11, 39)</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>9 (6, 14)</t>
+          <t>9 (5, 13)</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -2537,17 +2537,17 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>715 (320, 1342)</t>
+          <t>768 (345, 1442)</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>206 (121, 327)</t>
+          <t>211 (124, 335)</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>14 (7, 25)</t>
+          <t>13 (7, 25)</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -2572,17 +2572,17 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>31 (19, 48)</t>
+          <t>30 (19, 47)</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>22 (10, 38)</t>
+          <t>21 (10, 37)</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>9 (5, 13)</t>
+          <t>8 (5, 13)</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -2614,32 +2614,32 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1473 (1045, 2029)</t>
+          <t>1448 (1023, 2006)</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>472 (393, 570)</t>
+          <t>470 (392, 569)</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>36 (24, 51)</t>
+          <t>35 (23, 50)</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>26 (15, 41)</t>
+          <t>26 (14, 40)</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>10 (6, 14)</t>
+          <t>9 (6, 13)</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>8 (5, 11)</t>
+          <t>7 (5, 11)</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2649,22 +2649,22 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>63 (42, 90)</t>
+          <t>61 (40, 88)</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>45 (24, 72)</t>
+          <t>43 (23, 70)</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>17 (11, 25)</t>
+          <t>16 (10, 25)</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>12 (8, 17)</t>
+          <t>12 (7, 17)</t>
         </is>
       </c>
     </row>
@@ -2691,22 +2691,22 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1349 (924, 1918)</t>
+          <t>1332 (914, 1904)</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>440 (361, 540)</t>
+          <t>440 (361, 541)</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>34 (23, 49)</t>
+          <t>33 (22, 47)</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>25 (14, 38)</t>
+          <t>24 (13, 37)</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2716,7 +2716,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>7 (5, 11)</t>
+          <t>7 (4, 10)</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2726,22 +2726,22 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>60 (40, 87)</t>
+          <t>58 (39, 84)</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>43 (22, 69)</t>
+          <t>42 (22, 67)</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>16 (10, 24)</t>
+          <t>16 (10, 23)</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>11 (7, 17)</t>
+          <t>11 (7, 16)</t>
         </is>
       </c>
     </row>
@@ -2768,27 +2768,27 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>1247 (822, 1826)</t>
+          <t>1236 (817, 1815)</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>410 (330, 511)</t>
+          <t>411 (331, 513)</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>32 (21, 46)</t>
+          <t>31 (20, 45)</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>23 (12, 36)</t>
+          <t>22 (12, 35)</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>9 (6, 13)</t>
+          <t>9 (5, 12)</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -2803,22 +2803,22 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>57 (38, 83)</t>
+          <t>56 (37, 81)</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>41 (22, 66)</t>
+          <t>40 (21, 64)</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>15 (10, 23)</t>
+          <t>15 (9, 22)</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>11 (7, 16)</t>
+          <t>11 (7, 15)</t>
         </is>
       </c>
     </row>
@@ -2845,22 +2845,22 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>1156 (734, 1743)</t>
+          <t>1146 (727, 1734)</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>382 (302, 484)</t>
+          <t>383 (303, 487)</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>30 (20, 44)</t>
+          <t>29 (19, 43)</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>21 (11, 34)</t>
+          <t>21 (11, 33)</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2870,7 +2870,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>7 (4, 10)</t>
+          <t>6 (4, 9)</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2880,17 +2880,17 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>55 (36, 79)</t>
+          <t>53 (35, 77)</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>39 (21, 63)</t>
+          <t>38 (20, 61)</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>15 (9, 22)</t>
+          <t>14 (9, 21)</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -2922,27 +2922,27 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>1080 (654, 1665)</t>
+          <t>1072 (650, 1660)</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>356 (276, 460)</t>
+          <t>358 (278, 463)</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>28 (18, 42)</t>
+          <t>27 (18, 40)</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>20 (10, 32)</t>
+          <t>19 (10, 31)</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>8 (5, 12)</t>
+          <t>8 (5, 11)</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2957,22 +2957,22 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>52 (35, 76)</t>
+          <t>51 (34, 74)</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>37 (20, 60)</t>
+          <t>36 (19, 59)</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>14 (9, 21)</t>
+          <t>14 (9, 20)</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>10 (6, 15)</t>
+          <t>10 (6, 14)</t>
         </is>
       </c>
     </row>
@@ -2999,32 +2999,32 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>1006 (585, 1589)</t>
+          <t>1001 (583, 1590)</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>333 (252, 438)</t>
+          <t>334 (254, 441)</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>26 (17, 39)</t>
+          <t>25 (16, 38)</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>18 (9, 30)</t>
+          <t>17 (9, 29)</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>8 (5, 11)</t>
+          <t>7 (5, 11)</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>6 (4, 9)</t>
+          <t>6 (4, 8)</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -3034,22 +3034,22 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>50 (33, 73)</t>
+          <t>48 (32, 71)</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>36 (19, 58)</t>
+          <t>35 (18, 56)</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>13 (8, 20)</t>
+          <t>13 (8, 19)</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>9 (6, 14)</t>
+          <t>9 (6, 13)</t>
         </is>
       </c>
     </row>
@@ -3076,22 +3076,22 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>936 (524, 1522)</t>
+          <t>936 (523, 1527)</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>310 (230, 417)</t>
+          <t>312 (232, 420)</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>24 (15, 37)</t>
+          <t>23 (14, 36)</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>17 (8, 29)</t>
+          <t>16 (8, 28)</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -3101,7 +3101,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>6 (3, 8)</t>
+          <t>5 (3, 8)</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -3111,22 +3111,22 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>48 (31, 70)</t>
+          <t>46 (30, 68)</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>34 (18, 55)</t>
+          <t>33 (17, 54)</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>13 (8, 19)</t>
+          <t>12 (8, 19)</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>9 (6, 13)</t>
+          <t>9 (5, 13)</t>
         </is>
       </c>
     </row>
@@ -3153,27 +3153,27 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>876 (471, 1463)</t>
+          <t>881 (471, 1468)</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>289 (209, 396)</t>
+          <t>291 (210, 400)</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>22 (14, 35)</t>
+          <t>21 (13, 34)</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>15 (7, 27)</t>
+          <t>15 (7, 26)</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>7 (4, 10)</t>
+          <t>6 (4, 9)</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -3188,22 +3188,22 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>45 (30, 67)</t>
+          <t>44 (29, 65)</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>32 (17, 53)</t>
+          <t>31 (16, 52)</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>12 (8, 18)</t>
+          <t>12 (7, 18)</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>9 (5, 13)</t>
+          <t>8 (5, 12)</t>
         </is>
       </c>
     </row>
@@ -3230,22 +3230,22 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>826 (424, 1404)</t>
+          <t>828 (428, 1412)</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>268 (188, 377)</t>
+          <t>271 (190, 381)</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>20 (12, 33)</t>
+          <t>20 (12, 32)</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>14 (7, 25)</t>
+          <t>13 (6, 24)</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3265,17 +3265,17 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>43 (28, 64)</t>
+          <t>42 (27, 62)</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>31 (16, 51)</t>
+          <t>30 (15, 49)</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>12 (7, 17)</t>
+          <t>11 (7, 17)</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -3307,32 +3307,32 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>774 (382, 1350)</t>
+          <t>776 (388, 1362)</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>250 (169, 359)</t>
+          <t>252 (171, 364)</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>19 (11, 31)</t>
+          <t>18 (11, 30)</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>13 (6, 24)</t>
+          <t>12 (6, 23)</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>6 (4, 9)</t>
+          <t>6 (3, 8)</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>5 (3, 7)</t>
+          <t>4 (3, 7)</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -3342,22 +3342,22 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>41 (27, 61)</t>
+          <t>40 (26, 59)</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>29 (15, 49)</t>
+          <t>28 (15, 47)</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>11 (7, 17)</t>
+          <t>11 (7, 16)</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>8 (5, 12)</t>
+          <t>8 (5, 11)</t>
         </is>
       </c>
     </row>
@@ -3384,22 +3384,22 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>731 (349, 1300)</t>
+          <t>733 (355, 1312)</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>232 (152, 342)</t>
+          <t>235 (154, 347)</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>17 (10, 30)</t>
+          <t>17 (9, 28)</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>12 (5, 22)</t>
+          <t>11 (5, 22)</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3409,7 +3409,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>4 (3, 7)</t>
+          <t>4 (2, 6)</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -3419,22 +3419,22 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>39 (25, 58)</t>
+          <t>38 (24, 57)</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>28 (14, 46)</t>
+          <t>27 (14, 45)</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>11 (7, 16)</t>
+          <t>10 (6, 15)</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>7 (5, 11)</t>
+          <t>7 (4, 11)</t>
         </is>
       </c>
     </row>
@@ -3461,22 +3461,22 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>683 (317, 1251)</t>
+          <t>694 (321, 1267)</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>216 (137, 326)</t>
+          <t>219 (138, 331)</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>16 (9, 28)</t>
+          <t>15 (8, 27)</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>11 (4, 21)</t>
+          <t>10 (4, 20)</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3491,17 +3491,17 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>6 (4, 9)</t>
+          <t>6 (4, 8)</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>37 (24, 56)</t>
+          <t>36 (23, 54)</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>26 (13, 44)</t>
+          <t>26 (13, 43)</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -3511,7 +3511,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>7 (4, 11)</t>
+          <t>7 (4, 10)</t>
         </is>
       </c>
     </row>
@@ -3538,27 +3538,27 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>642 (288, 1206)</t>
+          <t>654 (292, 1225)</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>202 (123, 312)</t>
+          <t>204 (124, 317)</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>15 (8, 27)</t>
+          <t>14 (7, 26)</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>10 (4, 20)</t>
+          <t>9 (4, 19)</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>5 (3, 7)</t>
+          <t>4 (3, 7)</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -3573,22 +3573,22 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>35 (22, 53)</t>
+          <t>34 (21, 52)</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>25 (12, 42)</t>
+          <t>24 (12, 41)</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>10 (6, 14)</t>
+          <t>9 (6, 14)</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>7 (4, 10)</t>
+          <t>6 (4, 10)</t>
         </is>
       </c>
     </row>
@@ -3615,32 +3615,32 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>606 (261, 1159)</t>
+          <t>617 (264, 1179)</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>188 (111, 298)</t>
+          <t>191 (112, 303)</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>14 (7, 25)</t>
+          <t>13 (7, 24)</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>9 (3, 19)</t>
+          <t>9 (3, 18)</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>4 (3, 7)</t>
+          <t>4 (2, 7)</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>3 (2, 6)</t>
+          <t>3 (2, 5)</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -3650,22 +3650,22 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>33 (21, 51)</t>
+          <t>32 (20, 50)</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>23 (11, 40)</t>
+          <t>23 (11, 39)</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>9 (6, 14)</t>
+          <t>9 (5, 13)</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>6 (4, 10)</t>
+          <t>6 (4, 9)</t>
         </is>
       </c>
     </row>
@@ -3692,32 +3692,32 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>1484 (1052, 2039)</t>
+          <t>1453 (1028, 2011)</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>472 (393, 570)</t>
+          <t>471 (392, 570)</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>36 (24, 52)</t>
+          <t>35 (23, 50)</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>27 (15, 41)</t>
+          <t>26 (14, 40)</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>10 (6, 14)</t>
+          <t>9 (6, 13)</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>8 (5, 11)</t>
+          <t>7 (5, 11)</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -3727,22 +3727,22 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>63 (42, 90)</t>
+          <t>61 (41, 88)</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>45 (24, 72)</t>
+          <t>44 (23, 70)</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>17 (11, 25)</t>
+          <t>16 (10, 24)</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>12 (7, 18)</t>
+          <t>12 (7, 17)</t>
         </is>
       </c>
     </row>
@@ -3769,22 +3769,22 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>1366 (937, 1946)</t>
+          <t>1345 (922, 1922)</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>441 (362, 540)</t>
+          <t>440 (361, 541)</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>34 (23, 49)</t>
+          <t>33 (22, 47)</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>25 (14, 39)</t>
+          <t>24 (13, 37)</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3794,7 +3794,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>7 (5, 11)</t>
+          <t>7 (4, 10)</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -3804,22 +3804,22 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>60 (40, 87)</t>
+          <t>58 (39, 84)</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>43 (22, 69)</t>
+          <t>42 (22, 67)</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>16 (10, 24)</t>
+          <t>16 (10, 23)</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>11 (7, 17)</t>
+          <t>11 (7, 16)</t>
         </is>
       </c>
     </row>
@@ -3846,27 +3846,27 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>1269 (839, 1863)</t>
+          <t>1257 (826, 1847)</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>411 (331, 512)</t>
+          <t>411 (332, 514)</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>32 (21, 46)</t>
+          <t>31 (20, 45)</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>23 (13, 37)</t>
+          <t>22 (12, 35)</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>9 (6, 13)</t>
+          <t>9 (5, 12)</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -3881,22 +3881,22 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>57 (38, 83)</t>
+          <t>56 (37, 81)</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>41 (21, 66)</t>
+          <t>40 (21, 64)</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>15 (10, 23)</t>
+          <t>15 (9, 22)</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>11 (7, 16)</t>
+          <t>11 (7, 15)</t>
         </is>
       </c>
     </row>
@@ -3923,22 +3923,22 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>1186 (750, 1789)</t>
+          <t>1176 (746, 1776)</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>384 (303, 487)</t>
+          <t>384 (304, 489)</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>30 (20, 44)</t>
+          <t>29 (19, 43)</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>22 (12, 35)</t>
+          <t>21 (11, 33)</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3948,7 +3948,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>7 (4, 10)</t>
+          <t>6 (4, 9)</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -3958,22 +3958,22 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>55 (36, 80)</t>
+          <t>53 (35, 77)</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>39 (21, 63)</t>
+          <t>38 (20, 61)</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>15 (9, 22)</t>
+          <t>14 (9, 21)</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>10 (7, 15)</t>
+          <t>10 (6, 15)</t>
         </is>
       </c>
     </row>
@@ -4000,27 +4000,27 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>1115 (677, 1719)</t>
+          <t>1104 (669, 1710)</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>359 (278, 464)</t>
+          <t>360 (279, 466)</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>28 (18, 42)</t>
+          <t>27 (18, 40)</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>20 (11, 33)</t>
+          <t>19 (10, 32)</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>8 (5, 12)</t>
+          <t>8 (5, 11)</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -4035,22 +4035,22 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>52 (35, 76)</t>
+          <t>51 (34, 74)</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>37 (20, 60)</t>
+          <t>36 (19, 59)</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>14 (9, 21)</t>
+          <t>14 (8, 20)</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>10 (6, 15)</t>
+          <t>10 (6, 14)</t>
         </is>
       </c>
     </row>
@@ -4077,32 +4077,32 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>1044 (609, 1654)</t>
+          <t>1037 (606, 1650)</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>336 (255, 443)</t>
+          <t>337 (256, 445)</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>26 (17, 40)</t>
+          <t>25 (16, 38)</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>18 (9, 31)</t>
+          <t>18 (9, 30)</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>8 (5, 11)</t>
+          <t>7 (5, 11)</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>6 (4, 9)</t>
+          <t>6 (4, 8)</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -4112,22 +4112,22 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>50 (33, 73)</t>
+          <t>49 (32, 71)</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>36 (19, 58)</t>
+          <t>35 (18, 56)</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>13 (8, 20)</t>
+          <t>13 (8, 19)</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>9 (6, 14)</t>
+          <t>9 (6, 13)</t>
         </is>
       </c>
     </row>
@@ -4154,22 +4154,22 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>984 (551, 1593)</t>
+          <t>976 (548, 1590)</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>315 (233, 423)</t>
+          <t>316 (234, 426)</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>24 (15, 38)</t>
+          <t>23 (15, 36)</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>17 (9, 29)</t>
+          <t>16 (8, 28)</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -4179,7 +4179,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>6 (3, 8)</t>
+          <t>5 (3, 8)</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -4189,22 +4189,22 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>48 (31, 70)</t>
+          <t>46 (30, 68)</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>34 (18, 55)</t>
+          <t>33 (17, 54)</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>13 (8, 19)</t>
+          <t>12 (8, 19)</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>9 (6, 13)</t>
+          <t>9 (5, 13)</t>
         </is>
       </c>
     </row>
@@ -4231,27 +4231,27 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>931 (505, 1555)</t>
+          <t>932 (502, 1553)</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>295 (212, 405)</t>
+          <t>296 (213, 408)</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>23 (14, 36)</t>
+          <t>22 (13, 34)</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>16 (8, 28)</t>
+          <t>15 (7, 26)</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>7 (4, 10)</t>
+          <t>6 (4, 9)</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -4266,22 +4266,22 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>45 (30, 67)</t>
+          <t>44 (29, 65)</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>32 (17, 53)</t>
+          <t>32 (16, 52)</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>12 (8, 18)</t>
+          <t>12 (7, 18)</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>9 (5, 13)</t>
+          <t>8 (5, 12)</t>
         </is>
       </c>
     </row>
@@ -4308,22 +4308,22 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>898 (462, 1522)</t>
+          <t>898 (466, 1528)</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>276 (193, 388)</t>
+          <t>277 (194, 391)</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>21 (13, 34)</t>
+          <t>20 (12, 33)</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>14 (7, 26)</t>
+          <t>14 (7, 25)</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -4343,17 +4343,17 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>43 (28, 64)</t>
+          <t>42 (27, 62)</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>31 (16, 51)</t>
+          <t>30 (15, 49)</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>12 (7, 17)</t>
+          <t>11 (7, 17)</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -4385,57 +4385,57 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>860 (430, 1496)</t>
+          <t>864 (431, 1501)</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>258 (175, 373)</t>
+          <t>260 (176, 376)</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>19 (11, 32)</t>
+          <t>19 (11, 31)</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>13 (6, 25)</t>
+          <t>13 (6, 24)</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>6 (4, 9)</t>
+          <t>6 (3, 9)</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>5 (3, 7)</t>
+          <t>4 (3, 7)</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>7 (5, 10)</t>
+          <t>7 (5, 9)</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>41 (27, 61)</t>
+          <t>40 (26, 59)</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>29 (15, 49)</t>
+          <t>29 (15, 47)</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>11 (7, 17)</t>
+          <t>11 (7, 16)</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>8 (5, 12)</t>
+          <t>8 (5, 11)</t>
         </is>
       </c>
     </row>
@@ -4462,57 +4462,57 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>825 (398, 1467)</t>
+          <t>831 (401, 1476)</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>242 (158, 359)</t>
+          <t>244 (159, 362)</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>18 (10, 31)</t>
+          <t>17 (10, 30)</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>12 (5, 24)</t>
+          <t>12 (5, 23)</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>6 (3, 8)</t>
+          <t>5 (3, 8)</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>4 (3, 7)</t>
+          <t>4 (2, 6)</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>7 (5, 9)</t>
+          <t>6 (5, 9)</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>39 (25, 59)</t>
+          <t>38 (24, 57)</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>28 (14, 47)</t>
+          <t>27 (14, 45)</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>11 (7, 16)</t>
+          <t>10 (6, 15)</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>7 (5, 11)</t>
+          <t>7 (4, 11)</t>
         </is>
       </c>
     </row>
@@ -4539,22 +4539,22 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>796 (371, 1436)</t>
+          <t>799 (377, 1451)</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>228 (144, 346)</t>
+          <t>230 (145, 350)</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>17 (9, 30)</t>
+          <t>16 (9, 28)</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>11 (5, 23)</t>
+          <t>11 (4, 22)</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -4574,12 +4574,12 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>37 (24, 56)</t>
+          <t>36 (23, 54)</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>26 (13, 45)</t>
+          <t>26 (13, 43)</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -4589,7 +4589,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>7 (4, 11)</t>
+          <t>7 (4, 10)</t>
         </is>
       </c>
     </row>
@@ -4616,27 +4616,27 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>762 (343, 1409)</t>
+          <t>767 (351, 1429)</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>216 (131, 335)</t>
+          <t>218 (132, 339)</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>16 (8, 29)</t>
+          <t>15 (8, 27)</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>11 (4, 22)</t>
+          <t>10 (4, 21)</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>5 (3, 8)</t>
+          <t>5 (3, 7)</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -4651,17 +4651,17 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>35 (22, 54)</t>
+          <t>34 (22, 52)</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>25 (12, 43)</t>
+          <t>24 (12, 41)</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>10 (6, 15)</t>
+          <t>9 (6, 14)</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -4693,57 +4693,57 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>732 (323, 1383)</t>
+          <t>739 (328, 1404)</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>205 (120, 326)</t>
+          <t>207 (121, 330)</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>15 (8, 27)</t>
+          <t>14 (7, 26)</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>10 (4, 21)</t>
+          <t>10 (4, 20)</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>4 (3, 7)</t>
+          <t>4 (2, 7)</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>3 (2, 6)</t>
+          <t>3 (2, 5)</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>6 (4, 8)</t>
+          <t>5 (4, 8)</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>33 (21, 51)</t>
+          <t>32 (20, 50)</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>24 (11, 41)</t>
+          <t>23 (11, 39)</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>9 (6, 14)</t>
+          <t>9 (5, 13)</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>6 (4, 10)</t>
+          <t>6 (4, 9)</t>
         </is>
       </c>
     </row>
@@ -4845,42 +4845,42 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>501 (292, 834)</t>
+          <t>490 (286, 815)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>351 (142, 676)</t>
+          <t>341 (138, 660)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>128 (70, 226)</t>
+          <t>128 (68, 225)</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>80 (48, 127)</t>
+          <t>78 (46, 125)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>501 (292, 834)</t>
+          <t>490 (286, 815)</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>351 (142, 676)</t>
+          <t>341 (138, 660)</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>128 (70, 226)</t>
+          <t>128 (68, 225)</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>80 (48, 127)</t>
+          <t>78 (46, 125)</t>
         </is>
       </c>
     </row>
@@ -4907,42 +4907,42 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>478 (278, 798)</t>
+          <t>467 (272, 780)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>335 (135, 647)</t>
+          <t>325 (131, 631)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>123 (66, 216)</t>
+          <t>122 (65, 215)</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>76 (46, 122)</t>
+          <t>74 (44, 119)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>478 (278, 798)</t>
+          <t>467 (272, 780)</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>335 (135, 647)</t>
+          <t>325 (131, 631)</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>123 (66, 216)</t>
+          <t>122 (65, 215)</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>76 (46, 122)</t>
+          <t>74 (44, 119)</t>
         </is>
       </c>
     </row>
@@ -4969,42 +4969,42 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>456 (264, 762)</t>
+          <t>445 (258, 746)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>319 (128, 618)</t>
+          <t>309 (125, 603)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>117 (63, 206)</t>
+          <t>116 (62, 206)</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>73 (44, 116)</t>
+          <t>71 (42, 114)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>456 (264, 762)</t>
+          <t>445 (258, 746)</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>319 (128, 618)</t>
+          <t>309 (125, 603)</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>117 (63, 206)</t>
+          <t>116 (62, 206)</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>73 (44, 116)</t>
+          <t>71 (42, 114)</t>
         </is>
       </c>
     </row>
@@ -5031,42 +5031,42 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>434 (250, 728)</t>
+          <t>423 (244, 712)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>303 (121, 590)</t>
+          <t>293 (118, 576)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>112 (60, 197)</t>
+          <t>111 (59, 196)</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>69 (41, 111)</t>
+          <t>68 (40, 109)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>434 (250, 728)</t>
+          <t>423 (244, 712)</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>303 (121, 590)</t>
+          <t>293 (118, 576)</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>112 (60, 197)</t>
+          <t>111 (59, 196)</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>69 (41, 111)</t>
+          <t>68 (40, 109)</t>
         </is>
       </c>
     </row>
@@ -5093,42 +5093,42 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>412 (237, 695)</t>
+          <t>401 (231, 680)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>287 (114, 563)</t>
+          <t>278 (112, 549)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>106 (57, 188)</t>
+          <t>106 (56, 188)</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>66 (39, 106)</t>
+          <t>65 (38, 104)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>412 (237, 695)</t>
+          <t>401 (231, 680)</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>287 (114, 563)</t>
+          <t>278 (112, 549)</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>106 (57, 188)</t>
+          <t>106 (56, 188)</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>66 (39, 106)</t>
+          <t>65 (38, 104)</t>
         </is>
       </c>
     </row>
@@ -5155,42 +5155,42 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>391 (223, 662)</t>
+          <t>381 (218, 648)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>272 (108, 536)</t>
+          <t>263 (105, 523)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>101 (55, 179)</t>
+          <t>101 (53, 179)</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>63 (38, 101)</t>
+          <t>62 (36, 99)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>391 (223, 662)</t>
+          <t>381 (218, 648)</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>272 (108, 536)</t>
+          <t>263 (105, 523)</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>101 (55, 179)</t>
+          <t>101 (53, 179)</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>63 (38, 101)</t>
+          <t>62 (36, 99)</t>
         </is>
       </c>
     </row>
@@ -5217,42 +5217,42 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>370 (209, 631)</t>
+          <t>361 (204, 617)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>257 (101, 510)</t>
+          <t>248 (99, 498)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>96 (52, 171)</t>
+          <t>96 (51, 171)</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>60 (36, 96)</t>
+          <t>59 (34, 95)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>370 (209, 631)</t>
+          <t>361 (204, 617)</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>257 (101, 510)</t>
+          <t>248 (99, 498)</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>96 (52, 171)</t>
+          <t>96 (51, 171)</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>60 (36, 96)</t>
+          <t>59 (34, 95)</t>
         </is>
       </c>
     </row>
@@ -5279,42 +5279,42 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>349 (196, 600)</t>
+          <t>341 (191, 588)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>242 (95, 485)</t>
+          <t>234 (92, 473)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>92 (49, 163)</t>
+          <t>91 (48, 163)</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>57 (34, 92)</t>
+          <t>56 (33, 90)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>349 (196, 600)</t>
+          <t>341 (191, 588)</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>242 (95, 485)</t>
+          <t>234 (92, 473)</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>92 (49, 163)</t>
+          <t>91 (48, 163)</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>57 (34, 92)</t>
+          <t>56 (33, 90)</t>
         </is>
       </c>
     </row>
@@ -5341,42 +5341,42 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>329 (183, 571)</t>
+          <t>322 (178, 559)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>227 (88, 461)</t>
+          <t>220 (86, 450)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>87 (46, 156)</t>
+          <t>87 (45, 156)</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>54 (32, 87)</t>
+          <t>53 (31, 86)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>329 (183, 571)</t>
+          <t>322 (178, 559)</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>227 (88, 461)</t>
+          <t>220 (86, 450)</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>87 (46, 156)</t>
+          <t>87 (45, 156)</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>54 (32, 87)</t>
+          <t>53 (31, 86)</t>
         </is>
       </c>
     </row>
@@ -5403,42 +5403,42 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>310 (170, 542)</t>
+          <t>303 (166, 531)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>213 (82, 437)</t>
+          <t>207 (80, 427)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>82 (44, 148)</t>
+          <t>82 (43, 148)</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>51 (30, 83)</t>
+          <t>50 (29, 82)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>310 (170, 542)</t>
+          <t>303 (166, 531)</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>213 (82, 437)</t>
+          <t>207 (80, 427)</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>82 (44, 148)</t>
+          <t>82 (43, 148)</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>51 (30, 83)</t>
+          <t>50 (29, 82)</t>
         </is>
       </c>
     </row>
@@ -5465,42 +5465,42 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>290 (158, 514)</t>
+          <t>284 (154, 504)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>199 (75, 414)</t>
+          <t>193 (74, 404)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>78 (41, 141)</t>
+          <t>78 (40, 141)</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>48 (28, 79)</t>
+          <t>47 (27, 78)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>290 (158, 514)</t>
+          <t>284 (154, 504)</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>199 (75, 414)</t>
+          <t>193 (74, 404)</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>78 (41, 141)</t>
+          <t>78 (40, 141)</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>48 (28, 79)</t>
+          <t>47 (27, 78)</t>
         </is>
       </c>
     </row>
@@ -5527,42 +5527,42 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>272 (146, 488)</t>
+          <t>267 (142, 479)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>186 (69, 392)</t>
+          <t>181 (68, 383)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>74 (39, 134)</t>
+          <t>73 (38, 134)</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>45 (26, 75)</t>
+          <t>44 (25, 74)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>272 (146, 488)</t>
+          <t>267 (142, 479)</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>186 (69, 392)</t>
+          <t>181 (68, 383)</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>74 (39, 134)</t>
+          <t>73 (38, 134)</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>45 (26, 75)</t>
+          <t>44 (25, 74)</t>
         </is>
       </c>
     </row>
@@ -5589,42 +5589,42 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>255 (134, 462)</t>
+          <t>250 (131, 454)</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>173 (64, 371)</t>
+          <t>168 (62, 362)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>69 (36, 128)</t>
+          <t>69 (35, 128)</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>43 (25, 71)</t>
+          <t>42 (24, 70)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>255 (134, 462)</t>
+          <t>250 (131, 454)</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>173 (64, 371)</t>
+          <t>168 (62, 362)</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>69 (36, 128)</t>
+          <t>69 (35, 128)</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>43 (25, 71)</t>
+          <t>42 (24, 70)</t>
         </is>
       </c>
     </row>
@@ -5651,42 +5651,42 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>238 (123, 438)</t>
+          <t>234 (120, 430)</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>161 (58, 350)</t>
+          <t>157 (57, 343)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>65 (34, 121)</t>
+          <t>65 (33, 121)</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>40 (23, 67)</t>
+          <t>39 (22, 66)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>238 (123, 438)</t>
+          <t>234 (120, 430)</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>161 (58, 350)</t>
+          <t>157 (57, 343)</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>65 (34, 121)</t>
+          <t>65 (33, 121)</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>40 (23, 67)</t>
+          <t>39 (22, 66)</t>
         </is>
       </c>
     </row>
@@ -5713,42 +5713,42 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>500 (291, 835)</t>
+          <t>485 (283, 806)</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>349 (140, 679)</t>
+          <t>337 (135, 650)</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>128 (70, 228)</t>
+          <t>126 (68, 222)</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>80 (47, 128)</t>
+          <t>78 (47, 124)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>500 (291, 835)</t>
+          <t>485 (283, 806)</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>349 (140, 679)</t>
+          <t>337 (135, 650)</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>128 (70, 228)</t>
+          <t>126 (68, 222)</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>80 (47, 128)</t>
+          <t>78 (47, 124)</t>
         </is>
       </c>
     </row>
@@ -5775,42 +5775,42 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>477 (277, 798)</t>
+          <t>462 (269, 771)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>332 (133, 650)</t>
+          <t>321 (129, 621)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>123 (67, 218)</t>
+          <t>120 (65, 213)</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>76 (45, 122)</t>
+          <t>75 (45, 119)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>477 (277, 798)</t>
+          <t>462 (269, 771)</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>332 (133, 650)</t>
+          <t>321 (129, 621)</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>123 (67, 218)</t>
+          <t>120 (65, 213)</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>76 (45, 122)</t>
+          <t>75 (45, 119)</t>
         </is>
       </c>
     </row>
@@ -5837,42 +5837,42 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>455 (263, 764)</t>
+          <t>441 (255, 737)</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>317 (126, 621)</t>
+          <t>306 (122, 594)</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>117 (64, 208)</t>
+          <t>115 (62, 203)</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>73 (43, 117)</t>
+          <t>71 (42, 114)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>455 (263, 764)</t>
+          <t>441 (255, 737)</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>317 (126, 621)</t>
+          <t>306 (122, 594)</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>117 (64, 208)</t>
+          <t>115 (62, 203)</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>73 (43, 117)</t>
+          <t>71 (42, 114)</t>
         </is>
       </c>
     </row>
@@ -5899,42 +5899,42 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>433 (250, 730)</t>
+          <t>419 (242, 704)</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>301 (119, 593)</t>
+          <t>291 (115, 567)</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>111 (61, 199)</t>
+          <t>110 (59, 194)</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>69 (41, 111)</t>
+          <t>68 (40, 109)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>433 (250, 730)</t>
+          <t>419 (242, 704)</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>301 (119, 593)</t>
+          <t>291 (115, 567)</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>111 (61, 199)</t>
+          <t>110 (59, 194)</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>69 (41, 111)</t>
+          <t>68 (40, 109)</t>
         </is>
       </c>
     </row>
@@ -5961,42 +5961,42 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>411 (236, 697)</t>
+          <t>398 (229, 672)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>286 (113, 565)</t>
+          <t>276 (109, 541)</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>106 (58, 189)</t>
+          <t>104 (56, 185)</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>66 (39, 106)</t>
+          <t>65 (39, 104)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>411 (236, 697)</t>
+          <t>398 (229, 672)</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>286 (113, 565)</t>
+          <t>276 (109, 541)</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>106 (58, 189)</t>
+          <t>104 (56, 185)</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>66 (39, 106)</t>
+          <t>65 (39, 104)</t>
         </is>
       </c>
     </row>
@@ -6023,42 +6023,42 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>390 (223, 665)</t>
+          <t>378 (216, 641)</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>271 (106, 539)</t>
+          <t>261 (103, 516)</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>101 (55, 181)</t>
+          <t>100 (53, 177)</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>63 (37, 101)</t>
+          <t>62 (37, 99)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>390 (223, 665)</t>
+          <t>378 (216, 641)</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>271 (106, 539)</t>
+          <t>261 (103, 516)</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>101 (55, 181)</t>
+          <t>100 (53, 177)</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>63 (37, 101)</t>
+          <t>62 (37, 99)</t>
         </is>
       </c>
     </row>
@@ -6085,42 +6085,42 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>369 (209, 634)</t>
+          <t>358 (202, 611)</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>256 (100, 514)</t>
+          <t>247 (96, 491)</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>96 (52, 173)</t>
+          <t>95 (51, 169)</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>60 (35, 97)</t>
+          <t>59 (35, 95)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>369 (209, 634)</t>
+          <t>358 (202, 611)</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>256 (100, 514)</t>
+          <t>247 (96, 491)</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>96 (52, 173)</t>
+          <t>95 (51, 169)</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>60 (35, 97)</t>
+          <t>59 (35, 95)</t>
         </is>
       </c>
     </row>
@@ -6147,42 +6147,42 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>349 (196, 604)</t>
+          <t>339 (190, 583)</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>241 (94, 489)</t>
+          <t>233 (90, 468)</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>92 (50, 164)</t>
+          <t>90 (48, 161)</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>57 (33, 92)</t>
+          <t>56 (33, 90)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>349 (196, 604)</t>
+          <t>339 (190, 583)</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>241 (94, 489)</t>
+          <t>233 (90, 468)</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>92 (50, 164)</t>
+          <t>90 (48, 161)</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>57 (33, 92)</t>
+          <t>56 (33, 90)</t>
         </is>
       </c>
     </row>
@@ -6209,42 +6209,42 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>330 (183, 575)</t>
+          <t>320 (177, 555)</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>227 (88, 465)</t>
+          <t>219 (84, 445)</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>87 (47, 157)</t>
+          <t>85 (45, 154)</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>54 (31, 88)</t>
+          <t>53 (31, 86)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>330 (183, 575)</t>
+          <t>320 (177, 555)</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>227 (88, 465)</t>
+          <t>219 (84, 445)</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>87 (47, 157)</t>
+          <t>85 (45, 154)</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>54 (31, 88)</t>
+          <t>53 (31, 86)</t>
         </is>
       </c>
     </row>
@@ -6271,42 +6271,42 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>311 (171, 547)</t>
+          <t>302 (165, 529)</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>214 (82, 442)</t>
+          <t>206 (79, 423)</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>82 (44, 149)</t>
+          <t>81 (43, 147)</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>51 (30, 83)</t>
+          <t>50 (29, 82)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>311 (171, 547)</t>
+          <t>302 (165, 529)</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>214 (82, 442)</t>
+          <t>206 (79, 423)</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>82 (44, 149)</t>
+          <t>81 (43, 147)</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>51 (30, 83)</t>
+          <t>50 (29, 82)</t>
         </is>
       </c>
     </row>
@@ -6333,42 +6333,42 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>293 (159, 521)</t>
+          <t>285 (154, 503)</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>201 (76, 420)</t>
+          <t>194 (73, 402)</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>78 (42, 142)</t>
+          <t>77 (40, 140)</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>48 (28, 79)</t>
+          <t>47 (27, 78)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>293 (159, 521)</t>
+          <t>285 (154, 503)</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>201 (76, 420)</t>
+          <t>194 (73, 402)</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>78 (42, 142)</t>
+          <t>77 (40, 140)</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>48 (28, 79)</t>
+          <t>47 (27, 78)</t>
         </is>
       </c>
     </row>
@@ -6395,42 +6395,42 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>276 (147, 496)</t>
+          <t>268 (143, 479)</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>188 (70, 399)</t>
+          <t>182 (67, 383)</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>74 (39, 135)</t>
+          <t>72 (38, 133)</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>46 (26, 75)</t>
+          <t>45 (26, 74)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>276 (147, 496)</t>
+          <t>268 (143, 479)</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>188 (70, 399)</t>
+          <t>182 (67, 383)</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>74 (39, 135)</t>
+          <t>72 (38, 133)</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>46 (26, 75)</t>
+          <t>45 (26, 74)</t>
         </is>
       </c>
     </row>
@@ -6457,42 +6457,42 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>259 (136, 472)</t>
+          <t>252 (132, 456)</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>176 (65, 380)</t>
+          <t>171 (62, 364)</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>70 (37, 128)</t>
+          <t>68 (35, 126)</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>43 (24, 71)</t>
+          <t>42 (24, 70)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>259 (136, 472)</t>
+          <t>252 (132, 456)</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>176 (65, 380)</t>
+          <t>171 (62, 364)</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>70 (37, 128)</t>
+          <t>68 (35, 126)</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>43 (24, 71)</t>
+          <t>42 (24, 70)</t>
         </is>
       </c>
     </row>
@@ -6519,42 +6519,42 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>243 (126, 449)</t>
+          <t>237 (123, 435)</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>165 (60, 361)</t>
+          <t>161 (58, 347)</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>66 (34, 122)</t>
+          <t>65 (33, 120)</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>40 (23, 68)</t>
+          <t>39 (22, 66)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>243 (126, 449)</t>
+          <t>237 (123, 435)</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>165 (60, 361)</t>
+          <t>161 (58, 347)</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>66 (34, 122)</t>
+          <t>65 (33, 120)</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>40 (23, 68)</t>
+          <t>39 (22, 66)</t>
         </is>
       </c>
     </row>
@@ -6581,42 +6581,42 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>534 (310, 892)</t>
+          <t>514 (302, 864)</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>374 (152, 723)</t>
+          <t>358 (150, 699)</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>136 (74, 240)</t>
+          <t>133 (72, 235)</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>85 (51, 136)</t>
+          <t>82 (49, 131)</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>534 (310, 892)</t>
+          <t>514 (302, 864)</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>374 (152, 723)</t>
+          <t>358 (150, 699)</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>136 (74, 240)</t>
+          <t>133 (72, 235)</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>85 (51, 136)</t>
+          <t>82 (49, 131)</t>
         </is>
       </c>
     </row>
@@ -6643,42 +6643,42 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>510 (296, 854)</t>
+          <t>491 (288, 826)</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>358 (145, 692)</t>
+          <t>343 (143, 669)</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>130 (71, 229)</t>
+          <t>127 (69, 224)</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>81 (48, 130)</t>
+          <t>79 (46, 125)</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>510 (296, 854)</t>
+          <t>491 (288, 826)</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>358 (145, 692)</t>
+          <t>343 (143, 669)</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>130 (71, 229)</t>
+          <t>127 (69, 224)</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>81 (48, 130)</t>
+          <t>79 (46, 125)</t>
         </is>
       </c>
     </row>
@@ -6705,42 +6705,42 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>487 (282, 817)</t>
+          <t>469 (274, 791)</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>342 (138, 662)</t>
+          <t>327 (136, 640)</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>124 (67, 219)</t>
+          <t>121 (65, 214)</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>78 (46, 124)</t>
+          <t>75 (44, 119)</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>487 (282, 817)</t>
+          <t>469 (274, 791)</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>342 (138, 662)</t>
+          <t>327 (136, 640)</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>124 (67, 219)</t>
+          <t>121 (65, 214)</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>78 (46, 124)</t>
+          <t>75 (44, 119)</t>
         </is>
       </c>
     </row>
@@ -6767,42 +6767,42 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>464 (268, 781)</t>
+          <t>447 (260, 756)</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>326 (131, 633)</t>
+          <t>311 (129, 612)</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>118 (64, 209)</t>
+          <t>115 (62, 204)</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>74 (44, 119)</t>
+          <t>72 (42, 114)</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>464 (268, 781)</t>
+          <t>447 (260, 756)</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>326 (131, 633)</t>
+          <t>311 (129, 612)</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>118 (64, 209)</t>
+          <t>115 (62, 204)</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>74 (44, 119)</t>
+          <t>72 (42, 114)</t>
         </is>
       </c>
     </row>
@@ -6829,42 +6829,42 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>442 (254, 747)</t>
+          <t>426 (246, 723)</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>310 (124, 606)</t>
+          <t>296 (122, 584)</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>113 (61, 199)</t>
+          <t>110 (59, 195)</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>71 (42, 113)</t>
+          <t>68 (40, 109)</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>442 (254, 747)</t>
+          <t>426 (246, 723)</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>310 (124, 606)</t>
+          <t>296 (122, 584)</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>113 (61, 199)</t>
+          <t>110 (59, 195)</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>71 (42, 113)</t>
+          <t>68 (40, 109)</t>
         </is>
       </c>
     </row>
@@ -6891,42 +6891,42 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>421 (240, 713)</t>
+          <t>404 (232, 691)</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>294 (117, 578)</t>
+          <t>281 (115, 557)</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>108 (58, 190)</t>
+          <t>105 (56, 186)</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>67 (40, 108)</t>
+          <t>65 (38, 104)</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>421 (240, 713)</t>
+          <t>404 (232, 691)</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>294 (117, 578)</t>
+          <t>281 (115, 557)</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>108 (58, 190)</t>
+          <t>105 (56, 186)</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>67 (40, 108)</t>
+          <t>65 (38, 104)</t>
         </is>
       </c>
     </row>
@@ -6953,42 +6953,42 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>399 (226, 681)</t>
+          <t>384 (218, 659)</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>279 (110, 552)</t>
+          <t>266 (108, 531)</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>102 (55, 182)</t>
+          <t>100 (54, 178)</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>64 (38, 103)</t>
+          <t>62 (36, 99)</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>399 (226, 681)</t>
+          <t>384 (218, 659)</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>279 (110, 552)</t>
+          <t>266 (108, 531)</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>102 (55, 182)</t>
+          <t>100 (54, 178)</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>64 (38, 103)</t>
+          <t>62 (36, 99)</t>
         </is>
       </c>
     </row>
@@ -7015,42 +7015,42 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>378 (212, 650)</t>
+          <t>363 (205, 628)</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>264 (103, 526)</t>
+          <t>251 (102, 506)</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>98 (53, 173)</t>
+          <t>95 (51, 169)</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>61 (36, 99)</t>
+          <t>59 (34, 95)</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>378 (212, 650)</t>
+          <t>363 (205, 628)</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>264 (103, 526)</t>
+          <t>251 (102, 506)</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>98 (53, 173)</t>
+          <t>95 (51, 169)</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>61 (36, 99)</t>
+          <t>59 (34, 95)</t>
         </is>
       </c>
     </row>
@@ -7077,42 +7077,42 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>357 (199, 619)</t>
+          <t>343 (191, 598)</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>249 (96, 501)</t>
+          <t>236 (95, 481)</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>93 (50, 165)</t>
+          <t>90 (48, 161)</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>58 (34, 94)</t>
+          <t>56 (33, 90)</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>357 (199, 619)</t>
+          <t>343 (191, 598)</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>249 (96, 501)</t>
+          <t>236 (95, 481)</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>93 (50, 165)</t>
+          <t>90 (48, 161)</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>58 (34, 94)</t>
+          <t>56 (33, 90)</t>
         </is>
       </c>
     </row>
@@ -7139,42 +7139,42 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>337 (185, 590)</t>
+          <t>323 (178, 569)</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>234 (90, 476)</t>
+          <t>222 (88, 458)</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>88 (47, 157)</t>
+          <t>86 (45, 154)</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>55 (32, 90)</t>
+          <t>53 (31, 86)</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>337 (185, 590)</t>
+          <t>323 (178, 569)</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>234 (90, 476)</t>
+          <t>222 (88, 458)</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>88 (47, 157)</t>
+          <t>86 (45, 154)</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>55 (32, 90)</t>
+          <t>53 (31, 86)</t>
         </is>
       </c>
     </row>
@@ -7201,42 +7201,42 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>318 (172, 561)</t>
+          <t>304 (165, 541)</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>220 (83, 452)</t>
+          <t>208 (81, 434)</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>84 (44, 150)</t>
+          <t>81 (43, 147)</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>52 (30, 85)</t>
+          <t>50 (29, 82)</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>318 (172, 561)</t>
+          <t>304 (165, 541)</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>220 (83, 452)</t>
+          <t>208 (81, 434)</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>84 (44, 150)</t>
+          <t>81 (43, 147)</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>52 (30, 85)</t>
+          <t>50 (29, 82)</t>
         </is>
       </c>
     </row>
@@ -7263,42 +7263,42 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>299 (159, 533)</t>
+          <t>285 (152, 514)</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>205 (77, 429)</t>
+          <t>194 (75, 412)</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>79 (42, 143)</t>
+          <t>77 (40, 139)</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>49 (28, 81)</t>
+          <t>47 (27, 78)</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>299 (159, 533)</t>
+          <t>285 (152, 514)</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>205 (77, 429)</t>
+          <t>194 (75, 412)</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>79 (42, 143)</t>
+          <t>77 (40, 139)</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>49 (28, 81)</t>
+          <t>47 (27, 78)</t>
         </is>
       </c>
     </row>
@@ -7325,42 +7325,42 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>280 (147, 507)</t>
+          <t>267 (140, 488)</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>192 (71, 407)</t>
+          <t>181 (68, 391)</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>75 (39, 136)</t>
+          <t>72 (38, 133)</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>46 (27, 77)</t>
+          <t>44 (25, 74)</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>280 (147, 507)</t>
+          <t>267 (140, 488)</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>192 (71, 407)</t>
+          <t>181 (68, 391)</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>75 (39, 136)</t>
+          <t>72 (38, 133)</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>46 (27, 77)</t>
+          <t>44 (25, 74)</t>
         </is>
       </c>
     </row>
@@ -7387,42 +7387,42 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>262 (135, 481)</t>
+          <t>250 (129, 463)</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>179 (65, 386)</t>
+          <t>168 (62, 370)</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>71 (37, 129)</t>
+          <t>68 (35, 126)</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>44 (25, 73)</t>
+          <t>42 (24, 70)</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>262 (135, 481)</t>
+          <t>250 (129, 463)</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>179 (65, 386)</t>
+          <t>168 (62, 370)</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>71 (37, 129)</t>
+          <t>68 (35, 126)</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>44 (25, 73)</t>
+          <t>42 (24, 70)</t>
         </is>
       </c>
     </row>
@@ -7449,42 +7449,42 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>534 (310, 894)</t>
+          <t>519 (305, 859)</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>373 (151, 722)</t>
+          <t>365 (151, 696)</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>136 (74, 242)</t>
+          <t>131 (71, 234)</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>86 (51, 137)</t>
+          <t>83 (49, 132)</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>534 (310, 894)</t>
+          <t>519 (305, 859)</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>373 (151, 722)</t>
+          <t>365 (151, 696)</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>136 (74, 242)</t>
+          <t>131 (71, 234)</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>86 (51, 137)</t>
+          <t>83 (49, 132)</t>
         </is>
       </c>
     </row>
@@ -7511,42 +7511,42 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>511 (296, 856)</t>
+          <t>496 (290, 822)</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>357 (145, 692)</t>
+          <t>348 (144, 666)</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>130 (70, 231)</t>
+          <t>125 (68, 223)</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>82 (48, 131)</t>
+          <t>80 (47, 127)</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>511 (296, 856)</t>
+          <t>496 (290, 822)</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>357 (145, 692)</t>
+          <t>348 (144, 666)</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>130 (70, 231)</t>
+          <t>125 (68, 223)</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>82 (48, 131)</t>
+          <t>80 (47, 127)</t>
         </is>
       </c>
     </row>
@@ -7573,42 +7573,42 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>488 (282, 819)</t>
+          <t>473 (276, 787)</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>341 (138, 662)</t>
+          <t>332 (137, 637)</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>124 (67, 220)</t>
+          <t>120 (65, 213)</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>78 (46, 125)</t>
+          <t>76 (45, 121)</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>488 (282, 819)</t>
+          <t>473 (276, 787)</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>341 (138, 662)</t>
+          <t>332 (137, 637)</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>124 (67, 220)</t>
+          <t>120 (65, 213)</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>78 (46, 125)</t>
+          <t>76 (45, 121)</t>
         </is>
       </c>
     </row>
@@ -7635,42 +7635,42 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>465 (268, 783)</t>
+          <t>451 (262, 752)</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>325 (131, 633)</t>
+          <t>316 (130, 609)</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>118 (64, 210)</t>
+          <t>114 (62, 203)</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>74 (44, 119)</t>
+          <t>72 (43, 115)</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>465 (268, 783)</t>
+          <t>451 (262, 752)</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>325 (131, 633)</t>
+          <t>316 (130, 609)</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>118 (64, 210)</t>
+          <t>114 (62, 203)</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>74 (44, 119)</t>
+          <t>72 (43, 115)</t>
         </is>
       </c>
     </row>
@@ -7697,42 +7697,42 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>443 (254, 749)</t>
+          <t>429 (248, 719)</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>309 (124, 606)</t>
+          <t>301 (123, 582)</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>113 (61, 201)</t>
+          <t>109 (59, 194)</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>71 (42, 114)</t>
+          <t>69 (41, 110)</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>443 (254, 749)</t>
+          <t>429 (248, 719)</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>309 (124, 606)</t>
+          <t>301 (123, 582)</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>113 (61, 201)</t>
+          <t>109 (59, 194)</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>71 (42, 114)</t>
+          <t>69 (41, 110)</t>
         </is>
       </c>
     </row>
@@ -7759,42 +7759,42 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>422 (241, 717)</t>
+          <t>408 (235, 687)</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>294 (118, 579)</t>
+          <t>285 (116, 556)</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>107 (58, 192)</t>
+          <t>104 (56, 186)</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>68 (40, 109)</t>
+          <t>66 (39, 105)</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>422 (241, 717)</t>
+          <t>408 (235, 687)</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>294 (118, 579)</t>
+          <t>285 (116, 556)</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>107 (58, 192)</t>
+          <t>104 (56, 186)</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>68 (40, 109)</t>
+          <t>66 (39, 105)</t>
         </is>
       </c>
     </row>
@@ -7821,42 +7821,42 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>401 (227, 685)</t>
+          <t>387 (221, 655)</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>279 (111, 553)</t>
+          <t>270 (109, 530)</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>102 (55, 183)</t>
+          <t>99 (53, 177)</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>65 (38, 104)</t>
+          <t>63 (37, 101)</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>401 (227, 685)</t>
+          <t>387 (221, 655)</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>279 (111, 553)</t>
+          <t>270 (109, 530)</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>102 (55, 183)</t>
+          <t>99 (53, 177)</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>65 (38, 104)</t>
+          <t>63 (37, 101)</t>
         </is>
       </c>
     </row>
@@ -7883,42 +7883,42 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>380 (214, 654)</t>
+          <t>367 (208, 625)</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>264 (104, 528)</t>
+          <t>255 (103, 506)</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>98 (52, 175)</t>
+          <t>94 (50, 169)</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>61 (36, 99)</t>
+          <t>60 (35, 96)</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>380 (214, 654)</t>
+          <t>367 (208, 625)</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>264 (104, 528)</t>
+          <t>255 (103, 506)</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>98 (52, 175)</t>
+          <t>94 (50, 169)</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>61 (36, 99)</t>
+          <t>60 (35, 96)</t>
         </is>
       </c>
     </row>
@@ -7945,42 +7945,42 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>360 (201, 624)</t>
+          <t>347 (195, 596)</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>249 (98, 504)</t>
+          <t>241 (96, 482)</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>93 (50, 167)</t>
+          <t>89 (48, 161)</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>58 (34, 95)</t>
+          <t>57 (33, 91)</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>360 (201, 624)</t>
+          <t>347 (195, 596)</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>249 (98, 504)</t>
+          <t>241 (96, 482)</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>93 (50, 167)</t>
+          <t>89 (48, 161)</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>58 (34, 95)</t>
+          <t>57 (33, 91)</t>
         </is>
       </c>
     </row>
@@ -8007,42 +8007,42 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>340 (188, 596)</t>
+          <t>327 (182, 568)</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>235 (91, 480)</t>
+          <t>227 (89, 458)</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>88 (47, 159)</t>
+          <t>85 (45, 154)</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>55 (32, 90)</t>
+          <t>54 (31, 87)</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>340 (188, 596)</t>
+          <t>327 (182, 568)</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>235 (91, 480)</t>
+          <t>227 (89, 458)</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>88 (47, 159)</t>
+          <t>85 (45, 154)</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>55 (32, 90)</t>
+          <t>54 (31, 87)</t>
         </is>
       </c>
     </row>
@@ -8069,42 +8069,42 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>321 (175, 569)</t>
+          <t>308 (169, 541)</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>221 (85, 457)</t>
+          <t>213 (83, 436)</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>84 (44, 152)</t>
+          <t>80 (43, 147)</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>52 (30, 86)</t>
+          <t>51 (29, 83)</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>321 (175, 569)</t>
+          <t>308 (169, 541)</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>221 (85, 457)</t>
+          <t>213 (83, 436)</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>84 (44, 152)</t>
+          <t>80 (43, 147)</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>52 (30, 86)</t>
+          <t>51 (29, 83)</t>
         </is>
       </c>
     </row>
@@ -8131,42 +8131,42 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>303 (163, 542)</t>
+          <t>290 (157, 515)</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>208 (79, 436)</t>
+          <t>200 (77, 415)</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>79 (42, 145)</t>
+          <t>76 (40, 140)</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>50 (29, 82)</t>
+          <t>48 (28, 79)</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>303 (163, 542)</t>
+          <t>290 (157, 515)</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>208 (79, 436)</t>
+          <t>200 (77, 415)</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>79 (42, 145)</t>
+          <t>76 (40, 140)</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>50 (29, 82)</t>
+          <t>48 (28, 79)</t>
         </is>
       </c>
     </row>
@@ -8193,42 +8193,42 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>286 (151, 517)</t>
+          <t>273 (145, 491)</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>195 (73, 415)</t>
+          <t>187 (71, 394)</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>75 (39, 138)</t>
+          <t>72 (38, 133)</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>47 (27, 78)</t>
+          <t>45 (26, 75)</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>286 (151, 517)</t>
+          <t>273 (145, 491)</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>195 (73, 415)</t>
+          <t>187 (71, 394)</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>75 (39, 138)</t>
+          <t>72 (38, 133)</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>47 (27, 78)</t>
+          <t>45 (26, 75)</t>
         </is>
       </c>
     </row>
@@ -8255,42 +8255,42 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>269 (140, 493)</t>
+          <t>257 (134, 468)</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>184 (68, 396)</t>
+          <t>175 (65, 375)</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>71 (37, 132)</t>
+          <t>68 (35, 126)</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>44 (25, 74)</t>
+          <t>43 (24, 71)</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>269 (140, 493)</t>
+          <t>257 (134, 468)</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>184 (68, 396)</t>
+          <t>175 (65, 375)</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>71 (37, 132)</t>
+          <t>68 (35, 126)</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>44 (25, 74)</t>
+          <t>43 (24, 71)</t>
         </is>
       </c>
     </row>
